--- a/jauswertung-meldeunterlagen/src/main/resources/Meldeunterlagen/Meldeunterlagen Mannschaftsmeisterschaften (mit Namen).xlsx
+++ b/jauswertung-meldeunterlagen/src/main/resources/Meldeunterlagen/Meldeunterlagen Mannschaftsmeisterschaften (mit Namen).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\source\eclipse-workspace\JAuswertung-Project\jauswertung-meldeunterlagen\src\main\resources\Meldeunterlagen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\source\eclipse-workspace\JAuswertung-Project\jauswertung-meldeunterlagen\src\main\resources\Meldeunterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5863A3FF-ED2B-4C66-9F64-776BD4CEC9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946FAF9B-47E4-41ED-B1D9-E2352DEBE758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-100" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AK 12" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +248,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +330,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -354,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -412,7 +412,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -436,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -460,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -484,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -518,7 +518,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -542,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -566,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -590,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -624,7 +624,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -648,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -672,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -696,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -730,7 +730,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -754,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -778,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -802,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -836,7 +836,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -860,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -884,7 +884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -908,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -942,7 +942,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -966,7 +966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -990,7 +990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1014,7 +1014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1048,7 +1048,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1072,7 +1072,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1096,7 +1096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1154,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="24">
   <si>
     <t>Gliederung</t>
   </si>
@@ -1293,12 +1293,6 @@
     <t>4*50m Freistil</t>
   </si>
   <si>
-    <t>Meldepunkte A</t>
-  </si>
-  <si>
-    <t>Meldepunkte B</t>
-  </si>
-  <si>
     <t>4*25m RoA</t>
   </si>
   <si>
@@ -1330,6 +1324,9 @@
   </si>
   <si>
     <t>Vorname 5</t>
+  </si>
+  <si>
+    <t>Meldepunkte</t>
   </si>
 </sst>
 </file>
@@ -1470,9 +1467,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1510,9 +1507,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1545,26 +1542,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1597,26 +1577,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1806,26 +1769,27 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="0.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.1796875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="0" style="3" hidden="1"/>
     <col min="21" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1836,60 +1800,57 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1903,14 +1864,13 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -1924,14 +1884,13 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1945,14 +1904,13 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -1966,14 +1924,13 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -1987,14 +1944,13 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -2008,14 +1964,13 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2029,14 +1984,13 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -2050,14 +2004,13 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -2071,14 +2024,13 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2092,14 +2044,13 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -2113,14 +2064,13 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -2134,14 +2084,13 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -2155,14 +2104,13 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -2176,14 +2124,13 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -2197,14 +2144,13 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -2218,14 +2164,13 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -2239,14 +2184,13 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -2260,14 +2204,13 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -2281,14 +2224,13 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -2302,14 +2244,13 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -2323,14 +2264,13 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -2344,14 +2284,13 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2365,14 +2304,13 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2386,14 +2324,13 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2407,14 +2344,13 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -2428,14 +2364,13 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -2449,14 +2384,13 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -2470,14 +2404,13 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -2491,14 +2424,13 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -2512,7 +2444,6 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2544,25 +2475,26 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0" style="3" hidden="1"/>
     <col min="20" max="16384" width="12.81640625" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2573,60 +2505,57 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2640,14 +2569,13 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2661,14 +2589,13 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -2682,14 +2609,13 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2703,14 +2629,13 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -2724,14 +2649,13 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -2745,14 +2669,13 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2766,14 +2689,13 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -2787,14 +2709,13 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -2808,14 +2729,13 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2829,14 +2749,13 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -2850,14 +2769,13 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -2871,14 +2789,13 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -2892,14 +2809,13 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -2913,14 +2829,13 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -2934,14 +2849,13 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -2955,14 +2869,13 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -2976,14 +2889,13 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -2997,14 +2909,13 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -3018,14 +2929,13 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -3039,14 +2949,13 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -3060,14 +2969,13 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -3081,14 +2989,13 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -3102,14 +3009,13 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -3123,14 +3029,13 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -3144,14 +3049,13 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -3165,14 +3069,13 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -3186,14 +3089,13 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -3207,14 +3109,13 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -3228,14 +3129,13 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -3249,7 +3149,6 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3280,24 +3179,25 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="0" style="3" hidden="1"/>
     <col min="19" max="16384" width="12.81640625" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3308,57 +3208,54 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="I1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3371,14 +3268,13 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3391,14 +3287,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -3411,14 +3306,13 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3431,14 +3325,13 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -3451,14 +3344,13 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3471,14 +3363,13 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3491,14 +3382,13 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -3511,14 +3401,13 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -3531,14 +3420,13 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -3551,14 +3439,13 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -3571,14 +3458,13 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -3591,14 +3477,13 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -3611,14 +3496,13 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -3631,14 +3515,13 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -3651,14 +3534,13 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -3671,14 +3553,13 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -3691,14 +3572,13 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -3711,14 +3591,13 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -3731,14 +3610,13 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -3751,14 +3629,13 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -3771,14 +3648,13 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -3791,14 +3667,13 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -3811,14 +3686,13 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -3831,14 +3705,13 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -3851,14 +3724,13 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -3871,14 +3743,13 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -3891,14 +3762,13 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -3911,14 +3781,13 @@
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -3931,14 +3800,13 @@
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -3951,7 +3819,6 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3983,24 +3850,25 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="0" style="3" hidden="1"/>
     <col min="19" max="16384" width="12.81640625" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4011,57 +3879,54 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="I1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -4074,14 +3939,13 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4094,14 +3958,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -4114,14 +3977,13 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -4134,14 +3996,13 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -4154,14 +4015,13 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4174,14 +4034,13 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -4194,14 +4053,13 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -4214,14 +4072,13 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -4234,14 +4091,13 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -4254,14 +4110,13 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -4274,14 +4129,13 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -4294,14 +4148,13 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -4314,14 +4167,13 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -4334,14 +4186,13 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -4354,14 +4205,13 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -4374,14 +4224,13 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -4394,14 +4243,13 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -4414,14 +4262,13 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -4434,14 +4281,13 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -4454,14 +4300,13 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -4474,14 +4319,13 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -4494,14 +4338,13 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -4514,14 +4357,13 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -4534,14 +4376,13 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -4554,14 +4395,13 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -4574,14 +4414,13 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -4594,14 +4433,13 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -4614,14 +4452,13 @@
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -4634,14 +4471,13 @@
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -4654,7 +4490,6 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4686,27 +4521,28 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="0.1796875" style="3" customWidth="1"/>
-    <col min="21" max="25" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.1796875" style="3" customWidth="1"/>
+    <col min="20" max="24" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="0" style="3" hidden="1"/>
     <col min="26" max="16384" width="10.7265625" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4717,60 +4553,57 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -4784,14 +4617,13 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4805,14 +4637,13 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -4826,14 +4657,13 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -4847,14 +4677,13 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -4868,14 +4697,13 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4889,14 +4717,13 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -4910,14 +4737,13 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -4931,14 +4757,13 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -4952,14 +4777,13 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -4973,14 +4797,13 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -4994,14 +4817,13 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -5015,14 +4837,13 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -5036,14 +4857,13 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -5057,14 +4877,13 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -5078,14 +4897,13 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -5099,14 +4917,13 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -5120,14 +4937,13 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -5141,14 +4957,13 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -5162,14 +4977,13 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -5183,14 +4997,13 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -5204,14 +5017,13 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -5225,14 +5037,13 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -5246,14 +5057,13 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -5267,14 +5077,13 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -5288,14 +5097,13 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -5309,14 +5117,13 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -5330,14 +5137,13 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -5351,14 +5157,13 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -5372,14 +5177,13 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -5393,7 +5197,6 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -5425,25 +5228,26 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0" style="3" hidden="1"/>
     <col min="20" max="16384" width="12.81640625" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5454,60 +5258,57 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -5521,14 +5322,13 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -5542,14 +5342,13 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -5563,14 +5362,13 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -5584,14 +5382,13 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -5605,14 +5402,13 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -5626,14 +5422,13 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -5647,14 +5442,13 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -5668,14 +5462,13 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -5689,14 +5482,13 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -5710,14 +5502,13 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -5731,14 +5522,13 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -5752,14 +5542,13 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -5773,14 +5562,13 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -5794,14 +5582,13 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -5815,14 +5602,13 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -5836,14 +5622,13 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -5857,14 +5642,13 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -5878,14 +5662,13 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -5899,14 +5682,13 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -5920,14 +5702,13 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -5941,14 +5722,13 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -5962,14 +5742,13 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -5983,14 +5762,13 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -6004,14 +5782,13 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -6025,14 +5802,13 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -6046,14 +5822,13 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -6067,14 +5842,13 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -6088,14 +5862,13 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -6109,14 +5882,13 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -6130,7 +5902,6 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6162,25 +5933,26 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0" style="3" hidden="1"/>
     <col min="20" max="16384" width="12.81640625" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6191,60 +5963,57 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -6258,14 +6027,13 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -6279,14 +6047,13 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -6300,14 +6067,13 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -6321,14 +6087,13 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -6342,14 +6107,13 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6363,14 +6127,13 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -6384,14 +6147,13 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -6405,14 +6167,13 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -6426,14 +6187,13 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -6447,14 +6207,13 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -6468,14 +6227,13 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -6489,14 +6247,13 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -6510,14 +6267,13 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -6531,14 +6287,13 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -6552,14 +6307,13 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -6573,14 +6327,13 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -6594,14 +6347,13 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -6615,14 +6367,13 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -6636,14 +6387,13 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -6657,14 +6407,13 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -6678,14 +6427,13 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -6699,14 +6447,13 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -6720,14 +6467,13 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -6741,14 +6487,13 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -6762,14 +6507,13 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -6783,14 +6527,13 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -6804,14 +6547,13 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -6825,14 +6567,13 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -6846,14 +6587,13 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -6867,7 +6607,6 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6899,25 +6638,26 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0" style="3" hidden="1"/>
     <col min="20" max="16384" width="12.81640625" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6928,60 +6668,57 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -6995,14 +6732,13 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -7016,14 +6752,13 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -7037,14 +6772,13 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -7058,14 +6792,13 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -7079,14 +6812,13 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -7100,14 +6832,13 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -7121,14 +6852,13 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -7142,14 +6872,13 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -7163,14 +6892,13 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -7184,14 +6912,13 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -7205,14 +6932,13 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -7226,14 +6952,13 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -7247,14 +6972,13 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -7268,14 +6992,13 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -7289,14 +7012,13 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -7310,14 +7032,13 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -7331,14 +7052,13 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -7352,14 +7072,13 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -7373,14 +7092,13 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -7394,14 +7112,13 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -7415,14 +7132,13 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -7436,14 +7152,13 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -7457,14 +7172,13 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -7478,14 +7192,13 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -7499,14 +7212,13 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -7520,14 +7232,13 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -7541,14 +7252,13 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -7562,14 +7272,13 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -7583,14 +7292,13 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -7604,7 +7312,6 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -7636,25 +7343,26 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0" style="3" hidden="1"/>
     <col min="20" max="16384" width="12.81640625" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7665,60 +7373,57 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -7732,14 +7437,13 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -7753,14 +7457,13 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -7774,14 +7477,13 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -7795,14 +7497,13 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -7816,14 +7517,13 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -7837,14 +7537,13 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -7858,14 +7557,13 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -7879,14 +7577,13 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -7900,14 +7597,13 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -7921,14 +7617,13 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -7942,14 +7637,13 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -7963,14 +7657,13 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -7984,14 +7677,13 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -8005,14 +7697,13 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -8026,14 +7717,13 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -8047,14 +7737,13 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -8068,14 +7757,13 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -8089,14 +7777,13 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -8110,14 +7797,13 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -8131,14 +7817,13 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -8152,14 +7837,13 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -8173,14 +7857,13 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -8194,14 +7877,13 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -8215,14 +7897,13 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -8236,14 +7917,13 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -8257,14 +7937,13 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -8278,14 +7957,13 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -8299,14 +7977,13 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -8320,14 +7997,13 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -8341,7 +8017,6 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -8373,25 +8048,26 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0" style="3" hidden="1"/>
     <col min="20" max="16384" width="12.81640625" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8402,60 +8078,57 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -8469,14 +8142,13 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -8490,14 +8162,13 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -8511,14 +8182,13 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -8532,14 +8202,13 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -8553,14 +8222,13 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -8574,14 +8242,13 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -8595,14 +8262,13 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -8616,14 +8282,13 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -8637,14 +8302,13 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -8658,14 +8322,13 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -8679,14 +8342,13 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -8700,14 +8362,13 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -8721,14 +8382,13 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -8742,14 +8402,13 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -8763,14 +8422,13 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -8784,14 +8442,13 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -8805,14 +8462,13 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -8826,14 +8482,13 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -8847,14 +8502,13 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -8868,14 +8522,13 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -8889,14 +8542,13 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -8910,14 +8562,13 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -8931,14 +8582,13 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -8952,14 +8602,13 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -8973,14 +8622,13 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -8994,14 +8642,13 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -9015,14 +8662,13 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -9036,14 +8682,13 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -9057,14 +8702,13 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -9078,7 +8722,6 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -9110,25 +8753,26 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0" style="3" hidden="1"/>
     <col min="20" max="16384" width="12.81640625" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9139,60 +8783,57 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -9206,14 +8847,13 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -9227,14 +8867,13 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -9248,14 +8887,13 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -9269,14 +8907,13 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -9290,14 +8927,13 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -9311,14 +8947,13 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -9332,14 +8967,13 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -9353,14 +8987,13 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -9374,14 +9007,13 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -9395,14 +9027,13 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -9416,14 +9047,13 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -9437,14 +9067,13 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -9458,14 +9087,13 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -9479,14 +9107,13 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -9500,14 +9127,13 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -9521,14 +9147,13 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -9542,14 +9167,13 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -9563,14 +9187,13 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -9584,14 +9207,13 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -9605,14 +9227,13 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -9626,14 +9247,13 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -9647,14 +9267,13 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -9668,14 +9287,13 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -9689,14 +9307,13 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -9710,14 +9327,13 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -9731,14 +9347,13 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -9752,14 +9367,13 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -9773,14 +9387,13 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -9794,14 +9407,13 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -9815,7 +9427,6 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -9847,25 +9458,26 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0" style="3" hidden="1"/>
     <col min="20" max="16384" width="12.81640625" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9876,60 +9488,57 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -9943,14 +9552,13 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -9964,14 +9572,13 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -9985,14 +9592,13 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -10006,14 +9612,13 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -10027,14 +9632,13 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -10048,14 +9652,13 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -10069,14 +9672,13 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -10090,14 +9692,13 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -10111,14 +9712,13 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -10132,14 +9732,13 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -10153,14 +9752,13 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -10174,14 +9772,13 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -10195,14 +9792,13 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -10216,14 +9812,13 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -10237,14 +9832,13 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -10258,14 +9852,13 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -10279,14 +9872,13 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -10300,14 +9892,13 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -10321,14 +9912,13 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -10342,14 +9932,13 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -10363,14 +9952,13 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -10384,14 +9972,13 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -10405,14 +9992,13 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -10426,14 +10012,13 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -10447,14 +10032,13 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -10468,14 +10052,13 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -10489,14 +10072,13 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -10510,14 +10092,13 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -10531,14 +10112,13 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -10552,7 +10132,6 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
